--- a/data/Parallel/CombinedKinData_parallel.xlsx
+++ b/data/Parallel/CombinedKinData_parallel.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Dropbox\Research\Alaska SeaLife Center 2018-2020\Paper 2\Parallel Data (stroke velocity)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Parallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CB2304-D1F0-4397-9AE5-4AA50BFFE250}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDB801-5872-4F43-A6F5-AC588A332AF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="6" r:id="rId2"/>
+    <sheet name="ttests" sheetId="7" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="46">
   <si>
     <t>Species</t>
   </si>
@@ -104,6 +105,72 @@
   </si>
   <si>
     <t>These data are output from excel files containing the raw data for perpendicular flights. The calculations are done within the excel files for ease and the averages for each run copied to this file for analysis.</t>
+  </si>
+  <si>
+    <t>Pigeon Guillemot</t>
+  </si>
+  <si>
+    <t>Tufted Puffin</t>
+  </si>
+  <si>
+    <t>p-value (two-tailed)</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Upstroke Velocity</t>
+  </si>
+  <si>
+    <t>Upstroke Duration</t>
+  </si>
+  <si>
+    <t>Downstroke Duration</t>
+  </si>
+  <si>
+    <t>Downstroke Velocity</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
   </si>
 </sst>
 </file>
@@ -113,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +188,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,11 +273,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -259,6 +360,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,9 +687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14694BF-CA07-4D22-B41E-7CEC9E503429}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -668,8 +780,13 @@
       <c r="I2" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -699,6 +816,9 @@
       <c r="I3" s="15">
         <v>11</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
@@ -730,6 +850,13 @@
       <c r="I4" s="15">
         <v>11</v>
       </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
@@ -761,6 +888,15 @@
       <c r="I5" s="15">
         <v>12</v>
       </c>
+      <c r="K5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1091.682030418053</v>
+      </c>
+      <c r="M5" s="27">
+        <v>479.6289455713727</v>
+      </c>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
@@ -792,6 +928,15 @@
       <c r="I6" s="15">
         <v>12</v>
       </c>
+      <c r="K6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="27">
+        <v>10710.518192865327</v>
+      </c>
+      <c r="M6" s="27">
+        <v>2685.9229997554276</v>
+      </c>
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
@@ -823,6 +968,15 @@
       <c r="I7" s="15">
         <v>13</v>
       </c>
+      <c r="K7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="27">
+        <v>10</v>
+      </c>
+      <c r="M7" s="27">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
@@ -854,6 +1008,13 @@
       <c r="I8" s="15">
         <v>11</v>
       </c>
+      <c r="K8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="27">
+        <v>6698.2205963103779</v>
+      </c>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
@@ -885,6 +1046,13 @@
       <c r="I9" s="15">
         <v>13</v>
       </c>
+      <c r="K9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="27">
+        <v>0</v>
+      </c>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
@@ -916,6 +1084,13 @@
       <c r="I10" s="15">
         <v>11</v>
       </c>
+      <c r="K10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="27">
+        <v>18</v>
+      </c>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
@@ -947,6 +1122,13 @@
       <c r="I11" s="15">
         <v>10</v>
       </c>
+      <c r="K11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="27">
+        <v>16.722236842932038</v>
+      </c>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -976,6 +1158,13 @@
       <c r="I12" s="11">
         <v>2.5</v>
       </c>
+      <c r="K12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="27">
+        <v>1.0321043025860866E-12</v>
+      </c>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
@@ -1005,6 +1194,13 @@
       <c r="I13" s="15">
         <v>4</v>
       </c>
+      <c r="K13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="27">
+        <v>1.7340636066175394</v>
+      </c>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
@@ -1034,8 +1230,15 @@
       <c r="I14" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="27">
+        <v>2.0642086051721731E-12</v>
+      </c>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:23" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1266,13 @@
       <c r="I15" s="15">
         <v>7</v>
       </c>
-      <c r="K15" s="17"/>
+      <c r="K15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="28">
+        <v>2.1009220402410378</v>
+      </c>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
@@ -3045,10 +3254,314 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9564C3-19E7-432A-B7E0-01E2038246EB}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.3046875" customWidth="1"/>
+    <col min="2" max="2" width="20.3046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="30">
+        <v>2.1742733659520366E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1.5551842243851917E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="30">
+        <v>5.7093552809567516E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1.5875968464318503E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="30">
+        <v>1.4574530915005421E-12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30">
+        <v>7.7958771650880238E-18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="30">
+        <v>5.8105828734353106E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="30">
+        <v>3.8707443638703903E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="30">
+        <v>4.2739857752806498E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="30">
+        <v>4.5352783361536549E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="30">
+        <v>8.665337054579687E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="30">
+        <v>8.1290788368951069E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="30">
+        <v>5.4279033167657233E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="30">
+        <v>5.7499606727672306E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30">
+        <v>3.8442456975443135E-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30">
+        <v>8.3377751557118758E-11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="30">
+        <v>4.3633086872999411E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="30">
+        <v>2.1831310694574323E-12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="30">
+        <v>5.7899022097020092E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="30">
+        <v>2.1113334157615389E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="24"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="30">
+        <v>2.0630571412349694E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="30">
+        <v>5.7184783596884482E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="30">
+        <v>1.8807475340871764E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="30">
+        <v>2.0642086051721731E-12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E19BC2C-0F63-4DF4-8505-22CF78A24AD2}">
   <dimension ref="A1:I5"/>
   <sheetViews>

--- a/data/Parallel/CombinedKinData_parallel.xlsx
+++ b/data/Parallel/CombinedKinData_parallel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Parallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDB801-5872-4F43-A6F5-AC588A332AF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7A724F-D1AE-4BB4-B3DF-9AD27258D9C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="32">
   <si>
     <t>Species</t>
   </si>
@@ -130,48 +130,6 @@
   <si>
     <t>Downstroke Velocity</t>
   </si>
-  <si>
-    <t>Variable 1</t>
-  </si>
-  <si>
-    <t>Variable 2</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Hypothesized Mean Difference</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) one-tail</t>
-  </si>
-  <si>
-    <t>t Critical one-tail</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) two-tail</t>
-  </si>
-  <si>
-    <t>t Critical two-tail</t>
-  </si>
-  <si>
-    <t>t-Test: Two-Sample Assuming Equal Variances</t>
-  </si>
-  <si>
-    <t>Pooled Variance</t>
-  </si>
 </sst>
 </file>
 
@@ -241,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,26 +224,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -360,17 +298,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,9 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14694BF-CA07-4D22-B41E-7CEC9E503429}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -780,13 +718,11 @@
       <c r="I2" s="15">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -816,9 +752,9 @@
       <c r="I3" s="15">
         <v>11</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
@@ -850,13 +786,9 @@
       <c r="I4" s="15">
         <v>11</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
@@ -888,15 +820,9 @@
       <c r="I5" s="15">
         <v>12</v>
       </c>
-      <c r="K5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="27">
-        <v>1091.682030418053</v>
-      </c>
-      <c r="M5" s="27">
-        <v>479.6289455713727</v>
-      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
@@ -928,15 +854,9 @@
       <c r="I6" s="15">
         <v>12</v>
       </c>
-      <c r="K6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="27">
-        <v>10710.518192865327</v>
-      </c>
-      <c r="M6" s="27">
-        <v>2685.9229997554276</v>
-      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
@@ -968,15 +888,9 @@
       <c r="I7" s="15">
         <v>13</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="27">
-        <v>10</v>
-      </c>
-      <c r="M7" s="27">
-        <v>10</v>
-      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
@@ -1008,13 +922,9 @@
       <c r="I8" s="15">
         <v>11</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="27">
-        <v>6698.2205963103779</v>
-      </c>
-      <c r="M8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
@@ -1046,13 +956,9 @@
       <c r="I9" s="15">
         <v>13</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
@@ -1084,13 +990,9 @@
       <c r="I10" s="15">
         <v>11</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="27">
-        <v>18</v>
-      </c>
-      <c r="M10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
@@ -1122,13 +1024,9 @@
       <c r="I11" s="15">
         <v>10</v>
       </c>
-      <c r="K11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="27">
-        <v>16.722236842932038</v>
-      </c>
-      <c r="M11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -1158,13 +1056,9 @@
       <c r="I12" s="11">
         <v>2.5</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="27">
-        <v>1.0321043025860866E-12</v>
-      </c>
-      <c r="M12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
@@ -1194,13 +1088,9 @@
       <c r="I13" s="15">
         <v>4</v>
       </c>
-      <c r="K13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="27">
-        <v>1.7340636066175394</v>
-      </c>
-      <c r="M13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
@@ -1230,15 +1120,11 @@
       <c r="I14" s="15">
         <v>5</v>
       </c>
-      <c r="K14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="27">
-        <v>2.0642086051721731E-12</v>
-      </c>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
@@ -1266,13 +1152,9 @@
       <c r="I15" s="15">
         <v>7</v>
       </c>
-      <c r="K15" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="28">
-        <v>2.1009220402410378</v>
-      </c>
-      <c r="M15" s="28"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
@@ -3262,7 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9564C3-19E7-432A-B7E0-01E2038246EB}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -3273,289 +3155,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="27">
         <v>2.1742733659520366E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>1.5551842243851917E-9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>5.7093552809567516E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>1.5875968464318503E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="27">
         <v>1.4574530915005421E-12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="27">
         <v>7.7958771650880238E-18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>5.8105828734353106E-13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>3.8707443638703903E-9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="27">
         <v>4.2739857752806498E-6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="27">
         <v>4.5352783361536549E-9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="27">
         <v>8.665337054579687E-14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="27">
         <v>8.1290788368951069E-8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="27">
         <v>5.4279033167657233E-10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="27">
         <v>5.7499606727672306E-12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="27">
         <v>3.8442456975443135E-11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="27">
         <v>8.3377751557118758E-11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="28"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="27">
         <v>4.3633086872999411E-9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="27">
         <v>2.1831310694574323E-12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="27">
         <v>5.7899022097020092E-6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="27">
         <v>2.1113334157615389E-9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="27">
         <v>2.0630571412349694E-7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="27">
         <v>5.7184783596884482E-10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="27">
         <v>1.8807475340871764E-5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="27">
         <v>2.0642086051721731E-12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Parallel/CombinedKinData_parallel.xlsx
+++ b/data/Parallel/CombinedKinData_parallel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Parallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7A724F-D1AE-4BB4-B3DF-9AD27258D9C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC095D15-F4E3-46A4-B1D1-BA558339A3D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
+    <workbookView xWindow="38655" yWindow="1140" windowWidth="14280" windowHeight="13710" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -302,11 +302,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14694BF-CA07-4D22-B41E-7CEC9E503429}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
@@ -718,9 +718,9 @@
       <c r="I2" s="15">
         <v>9</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -752,9 +752,9 @@
       <c r="I3" s="15">
         <v>11</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
@@ -786,9 +786,9 @@
       <c r="I4" s="15">
         <v>11</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
@@ -3145,7 +3145,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3155,10 +3155,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
@@ -3201,10 +3201,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="24" t="s">
@@ -3247,10 +3247,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="24" t="s">
@@ -3293,10 +3293,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
@@ -3339,10 +3339,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
@@ -3385,10 +3385,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="24" t="s">

--- a/data/Parallel/CombinedKinData_parallel.xlsx
+++ b/data/Parallel/CombinedKinData_parallel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Parallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC095D15-F4E3-46A4-B1D1-BA558339A3D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B5E54-0407-4FCA-94F5-BF2E546371EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38655" yWindow="1140" windowWidth="14280" windowHeight="13710" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{150616B4-49CA-4136-994C-9CBCD5DEFFCD}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="38">
   <si>
     <t>Species</t>
   </si>
@@ -129,6 +129,24 @@
   </si>
   <si>
     <t>Downstroke Velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DownstrokeVelocity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UpstrokeVelocity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WingbeatFrequency </t>
+  </si>
+  <si>
+    <t>upduration</t>
+  </si>
+  <si>
+    <t>downduration</t>
+  </si>
+  <si>
+    <t>#ofWingbeats</t>
   </si>
 </sst>
 </file>
@@ -625,9 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14694BF-CA07-4D22-B41E-7CEC9E503429}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -656,22 +674,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -753,8 +771,9 @@
         <v>11</v>
       </c>
       <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
@@ -787,8 +806,9 @@
         <v>11</v>
       </c>
       <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
@@ -821,8 +841,9 @@
         <v>12</v>
       </c>
       <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
@@ -855,8 +876,9 @@
         <v>12</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
@@ -889,8 +911,9 @@
         <v>13</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
@@ -923,8 +946,9 @@
         <v>11</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
@@ -957,8 +981,9 @@
         <v>13</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
@@ -991,8 +1016,9 @@
         <v>11</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
@@ -1025,8 +1051,9 @@
         <v>10</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
     </row>
     <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -1057,8 +1084,9 @@
         <v>2.5</v>
       </c>
       <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
@@ -1089,8 +1117,9 @@
         <v>4</v>
       </c>
       <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15" t="s">
@@ -1121,8 +1150,9 @@
         <v>5</v>
       </c>
       <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
@@ -1153,8 +1183,9 @@
         <v>7</v>
       </c>
       <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
@@ -3136,7 +3167,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
